--- a/task2/correlated_numbers_currtently.xlsx
+++ b/task2/correlated_numbers_currtently.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C283F680-EF90-4DC3-BE24-C92C0A2DA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E3FD0-BC9C-45E9-AD4B-FAF0E367DF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="140" yWindow="1720" windowWidth="22490" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>60</v>
